--- a/mmcel/evidence.xlsx
+++ b/mmcel/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\safak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD67D06-A6B2-48FE-9709-8675A309F522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D178CD2-B7DF-4BAE-8C91-9E43E53DAFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="500" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
   <si>
     <t>TeamName</t>
   </si>
@@ -81,45 +81,12 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
   <si>
@@ -148,13 +115,220 @@
   </si>
   <si>
     <t>Cosmos</t>
+  </si>
+  <si>
+    <t>28D68495AA7D2DBCE9AC65490B8BA93C888EB9D98DCD96050CF269D03A6CB1C6</t>
+  </si>
+  <si>
+    <t>rubix</t>
+  </si>
+  <si>
+    <t>D1725F0D0BE20C5D8598E53D973FEF06BF07859D61956BE816C002BD57CC210F</t>
+  </si>
+  <si>
+    <t>F2285386B22C7B73ACF2C51A40E4082FFF218B1C73431C6EA547C879505E71A7</t>
+  </si>
+  <si>
+    <t>rubixnft01</t>
+  </si>
+  <si>
+    <t>rubixnft02</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>FA9903CB52F90560DF39C0AAB9F21FE3A3F60B20CC52CBE22C9DDAC6A5A65EB3</t>
+  </si>
+  <si>
+    <t>juno19wz9llc4s9ckl8f5ljntstwth5ukenkpc5mp39gdqr6ygs5m8hys9lu456</t>
+  </si>
+  <si>
+    <t>231DDC146BD3BF3984B22BCDB962098F8A6C6A7958E318CF09F1486A4672DE0D</t>
+  </si>
+  <si>
+    <t>4ED54C58DE2AD95963D767C77F63CFA1EA0AC342A8B904034AC4121EED1E7909</t>
+  </si>
+  <si>
+    <t>235967DB540F6E73C5B535404567C69255FE1870642BA7BEEE7ED6817B63E01E</t>
+  </si>
+  <si>
+    <t>72ED4C32C85C02BF4F76362AD87AA9218FB01D04628A53BC9379012499AE943E</t>
+  </si>
+  <si>
+    <t>rubixnft07</t>
+  </si>
+  <si>
+    <t>ibc/DB3D1DDDB1C9324FA41A46C8B20E3632788F9CC8E0E4162592207CBF39F30057</t>
+  </si>
+  <si>
+    <t>rubixnft08</t>
+  </si>
+  <si>
+    <t>ibc/515C7A0BEDB95CBDCB7A02103D2E9ABA58C66D31BC72209294CD668E7831EDF4</t>
+  </si>
+  <si>
+    <t>rubixnft09</t>
+  </si>
+  <si>
+    <t>ibc/1551CAADAB659E90FC420035BD339093192EBC61BABCA69A30A449C9F7080552</t>
+  </si>
+  <si>
+    <t>rubixnft10</t>
+  </si>
+  <si>
+    <t>ibc/378CEA60D006383D584A375A2C5FC48E482E7DA852850A706933DC05DE60E635</t>
+  </si>
+  <si>
+    <t>rubixnft11</t>
+  </si>
+  <si>
+    <t>ibc/DB55545725F3651F68D51760F149B5735DB6C874F382DABA4272B1EBA2EA2510</t>
+  </si>
+  <si>
+    <t>rubixnft12</t>
+  </si>
+  <si>
+    <t>ibc/43E2049EE026CAE5C4ABE89F9B34E32E39731297EA6D88AA5C3C16BDB2721986</t>
+  </si>
+  <si>
+    <t>4EC9B92B51639935978685FF5CCD17B0FE92467CCA4910492451071FA7FB079A</t>
+  </si>
+  <si>
+    <t>E97CFBA81C46EC2F490E54E94A4A37BAB5E956D094E3C60FF3D041543DB49A71</t>
+  </si>
+  <si>
+    <t>77B0CB536F7D23809CBC8BEE60E0ABDB0684E98EC6F861CEB4DE757C4BA58F6C</t>
+  </si>
+  <si>
+    <t>5056F792F5B15F8F90D0B68081F49F52F5119FE445CE8ECEBCBFC091C8B386C0</t>
+  </si>
+  <si>
+    <t>C031D5AFA1715B340B2AB17AD85A28C056E42931D6B873F4AA16AA91E8143E3B</t>
+  </si>
+  <si>
+    <t>E5A2F6626074D5DB28DEEF13975F449FE1CE5D36B3F540BF20F5D73D4BBD68A7</t>
+  </si>
+  <si>
+    <t>FAB53D067A928A78819D28E1546A687CA4E1FB382111312DB89AC112CA861736</t>
+  </si>
+  <si>
+    <t>DCB94A9A8A9D4BBCCE34AC1DFDBB72C560B53D5AC0EE79F7D4CB6D857A42C7A7</t>
+  </si>
+  <si>
+    <t>4E119338F4780F890A1C63462079DA9C20A2B4CBD45E26D2D0C78B59C9915825</t>
+  </si>
+  <si>
+    <t>3D61ABF57FABB0EBB13712812969ECD6F56F5872C92F642AA3792C68DFC79CCB</t>
+  </si>
+  <si>
+    <t>B7E09B9C95661493CAE0AA2FB1523C3A2C2AEFDC388356AA12B90BB01486F81D</t>
+  </si>
+  <si>
+    <t>4006BF86CE45C32185C41804018832FAF7AEB2FAA19DF1B9512BD016DB973C59</t>
+  </si>
+  <si>
+    <t>95A46F492EBF14E50BA64803FBD2924515C2A145B84AB2EA7C4FE133DF37B837</t>
+  </si>
+  <si>
+    <t>C8E95EB747C1A71F259C477367F8756B704FB9BAB5265C161F666D72427E7D5C</t>
+  </si>
+  <si>
+    <t>0457EB5FB4100A8AE9BADD56CA3FFAE40DB88DB69F4E3D9D1A8E3E7CEB03CAD7</t>
+  </si>
+  <si>
+    <t>E6D1E4E66276184174E254167F3882ADC653801505B448ABC6DFCD2146FF3E57</t>
+  </si>
+  <si>
+    <t>CF051204FEEA99C791BCD9A3C53296B11D4D15926BDECF47116D602C7DE7F4DC</t>
+  </si>
+  <si>
+    <t>BFE78C790F8921FA8C53B80439F14B3060F692A045A8B7BDC3A4100E30F9D7B2</t>
+  </si>
+  <si>
+    <t>8AD757ED59EAA59896A4BEF93E77B5097C6AB3804D98096D260FA5649EC39A7E</t>
+  </si>
+  <si>
+    <t>AA0CE79095EFB36734029737E93CCBBDA1B3A17D148D5E76A86DC5D914B7263E</t>
+  </si>
+  <si>
+    <t>48E662F8CACAD02DD8EDBCBD4FC17A31BCE721B81014D5E97157A35B8EA73D2D</t>
+  </si>
+  <si>
+    <t>47A299AD87D790701095434D55B24E28D28195BBCA77C8E311D2D2FAD5F36956</t>
+  </si>
+  <si>
+    <t>7FB5FEC6CABB786844FBCDAC795DBCE3AC338C305490E5DB2FFDEE0E38263A1E</t>
+  </si>
+  <si>
+    <t>A5B4E569E99260E70F0CDB7C5E0AA23090BCC64110A27554176AF3EC7F92C4A5</t>
+  </si>
+  <si>
+    <t>0DC89B5C344038985FF35092451A9E9B8D8739C041A411CCC0501F90CC787AFD</t>
+  </si>
+  <si>
+    <t>A615A80A96B9A934A61C9924F71E0D39F2CF63F237A10CAE09761896E3C3954B</t>
+  </si>
+  <si>
+    <t>7BB7E1F7003044BCA6041FCC0742489F54CBAA1724A9D2EC61BE34A5F2BC6C57</t>
+  </si>
+  <si>
+    <t>5641F5EC321ACB14C73E6E976015B3F7164156732316E207A860294F0DA1B5DA</t>
+  </si>
+  <si>
+    <t>A051F559D3419ACD6D45A02303C00CEB359045BAF3578C95DB3CFED652DF65A9</t>
+  </si>
+  <si>
+    <t>CD74A65F99348CF09D7058743E4A7152DCCBB1481F764596D147933C5FA4E4B3</t>
+  </si>
+  <si>
+    <t>E944D9F9E3E492B1A2699526EBD78D63072D528E70B00D88B4462480C765F4AE</t>
+  </si>
+  <si>
+    <t>5E4B93654B562883F70C204F23F56EDF5E9D2695AE84033E3DD82BDAE3D355C4</t>
+  </si>
+  <si>
+    <t>7CB456F07E09166A8891CA9874C55B830F91A7062D187EFC11C08296496F26FB</t>
+  </si>
+  <si>
+    <t>4E97B52327E6825E2E31F3F8E49A2A5B1815F4709CF7C05E4543F2277E30B5EF</t>
+  </si>
+  <si>
+    <t>B414C77607254BCF56C4D04CD3DD89ABC5EA180D822FC05092428C5838007531</t>
+  </si>
+  <si>
+    <t>1E77B9EB7A169BA87EEFA7EB7EF5636BCEFE1A2C3DBB3BD2D43A6A42A2A6BE71</t>
+  </si>
+  <si>
+    <t>D77B68C1E691C7986EC8219B989CF508706F22960B10CDB94BBBF2E6482DEFD6</t>
+  </si>
+  <si>
+    <t>DC2F7A7CA167DCE43C686FFD4F3885BA84227600F339570C8EC2AAA2A9D51271</t>
+  </si>
+  <si>
+    <t>A683B4D2D954E9F4E244525312E87BE0EF87A1432E5290E0A7DD140556FD84E6</t>
+  </si>
+  <si>
+    <t>063A2C03A6BB505F99875A857A8827784DDE0B65F50E61838793951FCC36A9D9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -168,6 +342,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -217,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -229,6 +409,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -615,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -659,28 +845,28 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -706,15 +894,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -740,15 +930,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -774,15 +966,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -808,15 +1002,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -827,9 +1021,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -842,25 +1038,39 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -871,9 +1081,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -886,25 +1098,39 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -915,9 +1141,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -930,25 +1158,39 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -959,9 +1201,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -974,25 +1218,39 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>63</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1003,9 +1261,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1018,25 +1278,39 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1047,9 +1321,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1062,25 +1338,39 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
+      <c r="A2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1110,10 +1402,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1124,9 +1416,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1139,25 +1433,55 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>76</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1168,9 +1492,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1183,25 +1509,55 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>81</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1228,12 +1586,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1260,12 +1620,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1292,12 +1652,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1324,12 +1684,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1340,9 +1700,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1358,18 +1720,29 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1399,24 +1774,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1446,24 +1823,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1493,24 +1872,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +1902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1541,24 +1922,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1571,7 +1952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1584,15 +1967,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1618,15 +2003,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/mmcel/evidence.xlsx
+++ b/mmcel/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\safak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D178CD2-B7DF-4BAE-8C91-9E43E53DAFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E53E3BF-8052-486F-BC73-5DF4E59C1435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="500" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="8" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>TeamName</t>
   </si>
@@ -87,12 +88,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>OpenRubix</t>
   </si>
   <si>
@@ -322,6 +317,24 @@
   </si>
   <si>
     <t>063A2C03A6BB505F99875A857A8827784DDE0B65F50E61838793951FCC36A9D9</t>
+  </si>
+  <si>
+    <t>6F8F9E06857BA809771DF509F580FCD239C92F29B9748587112019A4EE3E14F7</t>
+  </si>
+  <si>
+    <t>BAEEF5F275194BBACB0CCFACD67990385B30F60B86E0C1451B698D41C0689F09</t>
+  </si>
+  <si>
+    <t>FF337B0D7A87DB01C8F2E149B3F190D6CC240936626B19085F847DE783200305</t>
+  </si>
+  <si>
+    <t>8B5216CA652C018FADF9B16EE93FDEBF6CF8AADD420CCCA8A42BB19D8FFD5F46</t>
+  </si>
+  <si>
+    <t>F6C426E40C754283A20894469A9345533BC8759EA2A0E2A6EE8EE6B92FAA2A1B</t>
+  </si>
+  <si>
+    <t>5562F2785943E45A8EB275093357B0823715EDFCFC684CCFA6687BC1CD69072F</t>
   </si>
 </sst>
 </file>
@@ -845,28 +858,28 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +912,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -935,10 +948,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -971,10 +984,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1020,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1043,34 +1056,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1103,34 +1116,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1163,34 +1176,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1223,34 +1236,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1283,34 +1296,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1343,34 +1356,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1402,10 +1415,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1438,50 +1451,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1514,50 +1527,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1586,6 +1599,40 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1600,12 +1647,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,43 +1681,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1684,17 +1701,47 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89232271-5E6B-4B1C-A732-009FC7C5E685}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1725,24 +1772,24 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1782,16 +1829,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1831,16 +1878,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1880,16 +1927,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1930,16 +1977,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1972,10 +2019,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2055,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/mmcel/evidence.xlsx
+++ b/mmcel/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\safak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E53E3BF-8052-486F-BC73-5DF4E59C1435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1BA622-213B-4036-A8AB-D7C8C691A052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="8" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>231DDC146BD3BF3984B22BCDB962098F8A6C6A7958E318CF09F1486A4672DE0D</t>
   </si>
   <si>
-    <t>4ED54C58DE2AD95963D767C77F63CFA1EA0AC342A8B904034AC4121EED1E7909</t>
-  </si>
-  <si>
     <t>235967DB540F6E73C5B535404567C69255FE1870642BA7BEEE7ED6817B63E01E</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>5562F2785943E45A8EB275093357B0823715EDFCFC684CCFA6687BC1CD69072F</t>
+  </si>
+  <si>
+    <t>ibc/4ED54C58DE2AD95963D767C77F63CFA1EA0AC342A8B904034AC4121EED1E7909</t>
   </si>
 </sst>
 </file>
@@ -912,10 +912,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -948,10 +948,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -984,10 +984,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1599,12 +1599,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1633,12 +1633,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1667,12 +1667,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1701,12 +1701,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89232271-5E6B-4B1C-A732-009FC7C5E685}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1732,12 +1732,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1852,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,7 +1881,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>32</v>
@@ -1949,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
